--- a/_DESIGN/formulas.xlsx
+++ b/_DESIGN/formulas.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$D$1</definedName>
@@ -299,12 +300,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +666,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -682,11 +683,11 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,11 +703,11 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
@@ -714,11 +715,11 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
@@ -726,27 +727,27 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2072,10 +2073,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="str">
@@ -2084,10 +2085,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="str">
@@ -2096,10 +2097,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="str">
@@ -2108,10 +2109,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="str">
@@ -2120,10 +2121,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="str">
@@ -2132,10 +2133,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="str">
@@ -2144,10 +2145,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="str">
@@ -2156,10 +2157,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="str">
@@ -2168,10 +2169,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="str">
@@ -2180,10 +2181,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="str">
@@ -2192,10 +2193,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="str">
@@ -2204,10 +2205,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="str">
@@ -2216,10 +2217,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="str">
@@ -2228,10 +2229,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="str">
@@ -2240,10 +2241,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="str">
@@ -2252,10 +2253,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="str">
@@ -2264,10 +2265,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="str">
@@ -2276,10 +2277,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="str">
@@ -2288,10 +2289,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="str">
@@ -2300,10 +2301,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="str">
@@ -2312,10 +2313,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="str">
@@ -2324,10 +2325,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="str">
@@ -2336,10 +2337,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="str">
@@ -2348,10 +2349,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="str">
@@ -2360,10 +2361,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="str">
@@ -2372,10 +2373,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="str">
@@ -2384,10 +2385,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C27" t="str">
@@ -2396,10 +2397,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="str">
@@ -2408,10 +2409,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="str">
@@ -2420,10 +2421,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="str">
@@ -2432,10 +2433,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C31" t="str">
@@ -2444,10 +2445,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C32" t="str">
@@ -2456,10 +2457,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="str">
@@ -2468,10 +2469,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="str">
@@ -2480,10 +2481,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="str">
@@ -2492,10 +2493,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="str">
@@ -2504,10 +2505,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C37" t="str">
@@ -2516,10 +2517,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C38" t="str">
@@ -2528,10 +2529,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C39" t="str">
@@ -2540,10 +2541,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="str">
@@ -2552,10 +2553,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C41" t="str">
@@ -2564,10 +2565,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C42" t="str">
@@ -2576,10 +2577,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C43" t="str">
@@ -2588,10 +2589,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C44" t="str">
@@ -2600,10 +2601,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="str">
@@ -2612,10 +2613,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C46" t="str">
@@ -2624,10 +2625,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>47</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C47" t="str">
@@ -2636,10 +2637,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C48" t="str">
@@ -2648,10 +2649,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C49" t="str">
@@ -2660,10 +2661,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C50" t="str">
@@ -2681,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
@@ -2708,13 +2709,13 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="str">
@@ -2734,13 +2735,13 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" t="str">
@@ -2760,13 +2761,13 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
       <c r="E4" t="str">
@@ -2786,13 +2787,13 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" t="str">
@@ -2812,13 +2813,13 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" t="str">
@@ -2838,13 +2839,13 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" t="str">
@@ -2864,13 +2865,13 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" t="str">
@@ -2890,13 +2891,13 @@
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" t="str">
@@ -2916,13 +2917,13 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
       <c r="E10" t="str">
@@ -2942,13 +2943,13 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" t="str">
@@ -2968,13 +2969,13 @@
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" t="str">
@@ -2994,13 +2995,13 @@
       <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" t="str">
@@ -3020,13 +3021,13 @@
       <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" t="str">
@@ -3046,13 +3047,13 @@
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
       <c r="E15" t="str">
@@ -3072,13 +3073,13 @@
       <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>5</v>
       </c>
       <c r="E16" t="str">
@@ -3098,13 +3099,13 @@
       <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" t="str">
@@ -3124,13 +3125,13 @@
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" t="str">
@@ -3150,13 +3151,13 @@
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" t="str">
@@ -3176,13 +3177,13 @@
       <c r="A20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>4</v>
       </c>
       <c r="E20" t="str">
@@ -3202,13 +3203,13 @@
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" t="str">
@@ -3228,13 +3229,13 @@
       <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" t="str">
@@ -3254,13 +3255,13 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" t="str">
@@ -3280,13 +3281,13 @@
       <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" t="str">
@@ -3306,13 +3307,13 @@
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" t="str">
@@ -3332,13 +3333,13 @@
       <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>5</v>
       </c>
       <c r="E26" t="str">
@@ -3358,13 +3359,13 @@
       <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" t="str">
@@ -3384,13 +3385,13 @@
       <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" t="str">
@@ -3410,13 +3411,13 @@
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>3</v>
       </c>
       <c r="E29" t="str">
@@ -3436,13 +3437,13 @@
       <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" t="str">
@@ -3462,13 +3463,13 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" t="str">
@@ -3488,13 +3489,13 @@
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" t="str">
@@ -3514,13 +3515,13 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
       <c r="E33" t="str">
@@ -3540,13 +3541,13 @@
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>3</v>
       </c>
       <c r="E34" t="str">
@@ -3566,13 +3567,13 @@
       <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>4</v>
       </c>
       <c r="E35" t="str">
@@ -3592,13 +3593,13 @@
       <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>5</v>
       </c>
       <c r="E36" t="str">
@@ -3618,13 +3619,13 @@
       <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" t="str">
@@ -3644,13 +3645,13 @@
       <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>2</v>
       </c>
       <c r="E38" t="str">
@@ -3670,13 +3671,13 @@
       <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>3</v>
       </c>
       <c r="E39" t="str">
@@ -3696,13 +3697,13 @@
       <c r="A40" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>4</v>
       </c>
       <c r="E40" t="str">
@@ -3722,13 +3723,13 @@
       <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>5</v>
       </c>
       <c r="E41" t="str">
@@ -3748,13 +3749,13 @@
       <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" t="str">
@@ -3774,13 +3775,13 @@
       <c r="A43" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>2</v>
       </c>
       <c r="E43" t="str">
@@ -3800,13 +3801,13 @@
       <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>3</v>
       </c>
       <c r="E44" t="str">
@@ -3826,13 +3827,13 @@
       <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>4</v>
       </c>
       <c r="E45" t="str">
@@ -3852,13 +3853,13 @@
       <c r="A46" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>5</v>
       </c>
       <c r="E46" t="str">
@@ -3878,13 +3879,13 @@
       <c r="A47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="E47" t="str">
@@ -3904,13 +3905,13 @@
       <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>2</v>
       </c>
       <c r="E48" t="str">
@@ -3930,13 +3931,13 @@
       <c r="A49" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>3</v>
       </c>
       <c r="E49" t="str">
@@ -3956,13 +3957,13 @@
       <c r="A50" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>4</v>
       </c>
       <c r="E50" t="str">
@@ -3982,13 +3983,13 @@
       <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>5</v>
       </c>
       <c r="E51" t="str">
@@ -4008,13 +4009,13 @@
       <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52" t="str">
@@ -4034,13 +4035,13 @@
       <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>2</v>
       </c>
       <c r="E53" t="str">
@@ -4060,13 +4061,13 @@
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>3</v>
       </c>
       <c r="E54" t="str">
@@ -4086,13 +4087,13 @@
       <c r="A55" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>4</v>
       </c>
       <c r="E55" t="str">
@@ -4112,13 +4113,13 @@
       <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>5</v>
       </c>
       <c r="E56" t="str">
@@ -4138,13 +4139,13 @@
       <c r="A57" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" t="str">
@@ -4164,13 +4165,13 @@
       <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>2</v>
       </c>
       <c r="E58" t="str">
@@ -4190,13 +4191,13 @@
       <c r="A59" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>3</v>
       </c>
       <c r="E59" t="str">
@@ -4216,13 +4217,13 @@
       <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>4</v>
       </c>
       <c r="E60" t="str">
@@ -4242,13 +4243,13 @@
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>5</v>
       </c>
       <c r="E61" t="str">
@@ -4268,13 +4269,13 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" t="str">
@@ -4294,13 +4295,13 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>2</v>
       </c>
       <c r="E63" t="str">
@@ -4320,13 +4321,13 @@
       <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>3</v>
       </c>
       <c r="E64" t="str">
@@ -4346,13 +4347,13 @@
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>4</v>
       </c>
       <c r="E65" t="str">
@@ -4372,13 +4373,13 @@
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>5</v>
       </c>
       <c r="E66" t="str">
@@ -4398,13 +4399,13 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" t="str">
@@ -4424,13 +4425,13 @@
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>2</v>
       </c>
       <c r="E68" t="str">
@@ -4450,13 +4451,13 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>3</v>
       </c>
       <c r="E69" t="str">
@@ -4476,13 +4477,13 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>4</v>
       </c>
       <c r="E70" t="str">
@@ -4502,13 +4503,13 @@
       <c r="A71" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>5</v>
       </c>
       <c r="E71" t="str">
@@ -4528,13 +4529,13 @@
       <c r="A72" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" t="str">
@@ -4554,13 +4555,13 @@
       <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>2</v>
       </c>
       <c r="E73" t="str">
@@ -4580,13 +4581,13 @@
       <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>3</v>
       </c>
       <c r="E74" t="str">
@@ -4606,13 +4607,13 @@
       <c r="A75" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>4</v>
       </c>
       <c r="E75" t="str">
@@ -4632,13 +4633,13 @@
       <c r="A76" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>5</v>
       </c>
       <c r="E76" t="str">
@@ -4658,13 +4659,13 @@
       <c r="A77" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" t="str">
@@ -4684,13 +4685,13 @@
       <c r="A78" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>16</v>
       </c>
       <c r="C78" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>2</v>
       </c>
       <c r="E78" t="str">
@@ -4710,13 +4711,13 @@
       <c r="A79" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>3</v>
       </c>
       <c r="E79" t="str">
@@ -4736,13 +4737,13 @@
       <c r="A80" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>70</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>4</v>
       </c>
       <c r="E80" t="str">
@@ -4762,13 +4763,13 @@
       <c r="A81" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>5</v>
       </c>
       <c r="E81" t="str">
@@ -4788,13 +4789,13 @@
       <c r="A82" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>70</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82" t="str">
@@ -4814,13 +4815,13 @@
       <c r="A83" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>17</v>
       </c>
       <c r="C83" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>2</v>
       </c>
       <c r="E83" t="str">
@@ -4840,13 +4841,13 @@
       <c r="A84" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>17</v>
       </c>
       <c r="C84" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>3</v>
       </c>
       <c r="E84" t="str">
@@ -4866,13 +4867,13 @@
       <c r="A85" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>4</v>
       </c>
       <c r="E85" t="str">
@@ -4892,13 +4893,13 @@
       <c r="A86" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>17</v>
       </c>
       <c r="C86" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>5</v>
       </c>
       <c r="E86" t="str">
@@ -4918,13 +4919,13 @@
       <c r="A87" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>18</v>
       </c>
       <c r="C87" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" t="str">
@@ -4944,13 +4945,13 @@
       <c r="A88" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>18</v>
       </c>
       <c r="C88" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>2</v>
       </c>
       <c r="E88" t="str">
@@ -4970,13 +4971,13 @@
       <c r="A89" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>18</v>
       </c>
       <c r="C89" t="s">
         <v>70</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>3</v>
       </c>
       <c r="E89" t="str">
@@ -4996,13 +4997,13 @@
       <c r="A90" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>4</v>
       </c>
       <c r="E90" t="str">
@@ -5022,13 +5023,13 @@
       <c r="A91" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>18</v>
       </c>
       <c r="C91" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>5</v>
       </c>
       <c r="E91" t="str">
@@ -5048,13 +5049,13 @@
       <c r="A92" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>19</v>
       </c>
       <c r="C92" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>1</v>
       </c>
       <c r="E92" t="str">
@@ -5074,13 +5075,13 @@
       <c r="A93" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>19</v>
       </c>
       <c r="C93" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>2</v>
       </c>
       <c r="E93" t="str">
@@ -5100,13 +5101,13 @@
       <c r="A94" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>19</v>
       </c>
       <c r="C94" t="s">
         <v>70</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>3</v>
       </c>
       <c r="E94" t="str">
@@ -5126,13 +5127,13 @@
       <c r="A95" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>19</v>
       </c>
       <c r="C95" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>4</v>
       </c>
       <c r="E95" t="str">
@@ -5152,13 +5153,13 @@
       <c r="A96" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>19</v>
       </c>
       <c r="C96" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>5</v>
       </c>
       <c r="E96" t="str">
@@ -5178,13 +5179,13 @@
       <c r="A97" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>20</v>
       </c>
       <c r="C97" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>1</v>
       </c>
       <c r="E97" t="str">
@@ -5204,13 +5205,13 @@
       <c r="A98" t="s">
         <v>68</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>20</v>
       </c>
       <c r="C98" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>2</v>
       </c>
       <c r="E98" t="str">
@@ -5230,13 +5231,13 @@
       <c r="A99" t="s">
         <v>68</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>20</v>
       </c>
       <c r="C99" t="s">
         <v>70</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>3</v>
       </c>
       <c r="E99" t="str">
@@ -5256,13 +5257,13 @@
       <c r="A100" t="s">
         <v>68</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>20</v>
       </c>
       <c r="C100" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>4</v>
       </c>
       <c r="E100" t="str">
@@ -5282,13 +5283,13 @@
       <c r="A101" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>20</v>
       </c>
       <c r="C101" t="s">
         <v>70</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>5</v>
       </c>
       <c r="E101" t="str">
@@ -5308,13 +5309,13 @@
       <c r="A102" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>21</v>
       </c>
       <c r="C102" t="s">
         <v>70</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>1</v>
       </c>
       <c r="E102" t="str">
@@ -5334,13 +5335,13 @@
       <c r="A103" t="s">
         <v>68</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>21</v>
       </c>
       <c r="C103" t="s">
         <v>70</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>2</v>
       </c>
       <c r="E103" t="str">
@@ -5360,13 +5361,13 @@
       <c r="A104" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>21</v>
       </c>
       <c r="C104" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>3</v>
       </c>
       <c r="E104" t="str">
@@ -5386,13 +5387,13 @@
       <c r="A105" t="s">
         <v>68</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="4">
         <v>21</v>
       </c>
       <c r="C105" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>4</v>
       </c>
       <c r="E105" t="str">
@@ -5412,13 +5413,13 @@
       <c r="A106" t="s">
         <v>68</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="4">
         <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>5</v>
       </c>
       <c r="E106" t="str">
@@ -5438,13 +5439,13 @@
       <c r="A107" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>1</v>
       </c>
       <c r="E107" t="str">
@@ -5464,13 +5465,13 @@
       <c r="A108" t="s">
         <v>68</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>22</v>
       </c>
       <c r="C108" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>2</v>
       </c>
       <c r="E108" t="str">
@@ -5490,13 +5491,13 @@
       <c r="A109" t="s">
         <v>68</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>22</v>
       </c>
       <c r="C109" t="s">
         <v>70</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>3</v>
       </c>
       <c r="E109" t="str">
@@ -5516,13 +5517,13 @@
       <c r="A110" t="s">
         <v>68</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>22</v>
       </c>
       <c r="C110" t="s">
         <v>70</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>4</v>
       </c>
       <c r="E110" t="str">
@@ -5542,13 +5543,13 @@
       <c r="A111" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>22</v>
       </c>
       <c r="C111" t="s">
         <v>70</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>5</v>
       </c>
       <c r="E111" t="str">
@@ -5568,13 +5569,13 @@
       <c r="A112" t="s">
         <v>68</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>23</v>
       </c>
       <c r="C112" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112" t="str">
@@ -5594,13 +5595,13 @@
       <c r="A113" t="s">
         <v>68</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>23</v>
       </c>
       <c r="C113" t="s">
         <v>70</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>2</v>
       </c>
       <c r="E113" t="str">
@@ -5620,13 +5621,13 @@
       <c r="A114" t="s">
         <v>68</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>23</v>
       </c>
       <c r="C114" t="s">
         <v>70</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>3</v>
       </c>
       <c r="E114" t="str">
@@ -5646,13 +5647,13 @@
       <c r="A115" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>23</v>
       </c>
       <c r="C115" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>4</v>
       </c>
       <c r="E115" t="str">
@@ -5672,13 +5673,13 @@
       <c r="A116" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="4">
         <v>23</v>
       </c>
       <c r="C116" t="s">
         <v>70</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>5</v>
       </c>
       <c r="E116" t="str">
@@ -5698,13 +5699,13 @@
       <c r="A117" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="4">
         <v>24</v>
       </c>
       <c r="C117" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>1</v>
       </c>
       <c r="E117" t="str">
@@ -5724,13 +5725,13 @@
       <c r="A118" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>24</v>
       </c>
       <c r="C118" t="s">
         <v>70</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>2</v>
       </c>
       <c r="E118" t="str">
@@ -5750,13 +5751,13 @@
       <c r="A119" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>24</v>
       </c>
       <c r="C119" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>3</v>
       </c>
       <c r="E119" t="str">
@@ -5776,13 +5777,13 @@
       <c r="A120" t="s">
         <v>68</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>24</v>
       </c>
       <c r="C120" t="s">
         <v>70</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>4</v>
       </c>
       <c r="E120" t="str">
@@ -5802,13 +5803,13 @@
       <c r="A121" t="s">
         <v>68</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>24</v>
       </c>
       <c r="C121" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>5</v>
       </c>
       <c r="E121" t="str">
@@ -5828,13 +5829,13 @@
       <c r="A122" t="s">
         <v>68</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>25</v>
       </c>
       <c r="C122" t="s">
         <v>70</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>1</v>
       </c>
       <c r="E122" t="str">
@@ -5854,13 +5855,13 @@
       <c r="A123" t="s">
         <v>68</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>25</v>
       </c>
       <c r="C123" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>2</v>
       </c>
       <c r="E123" t="str">
@@ -5880,13 +5881,13 @@
       <c r="A124" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>25</v>
       </c>
       <c r="C124" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>3</v>
       </c>
       <c r="E124" t="str">
@@ -5906,13 +5907,13 @@
       <c r="A125" t="s">
         <v>68</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>25</v>
       </c>
       <c r="C125" t="s">
         <v>70</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>4</v>
       </c>
       <c r="E125" t="str">
@@ -5932,13 +5933,13 @@
       <c r="A126" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>25</v>
       </c>
       <c r="C126" t="s">
         <v>70</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>5</v>
       </c>
       <c r="E126" t="str">
@@ -5958,13 +5959,13 @@
       <c r="A127" t="s">
         <v>68</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>26</v>
       </c>
       <c r="C127" t="s">
         <v>70</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>1</v>
       </c>
       <c r="E127" t="str">
@@ -5984,13 +5985,13 @@
       <c r="A128" t="s">
         <v>68</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>26</v>
       </c>
       <c r="C128" t="s">
         <v>70</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>2</v>
       </c>
       <c r="E128" t="str">
@@ -6010,13 +6011,13 @@
       <c r="A129" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>26</v>
       </c>
       <c r="C129" t="s">
         <v>70</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>3</v>
       </c>
       <c r="E129" t="str">
@@ -6036,13 +6037,13 @@
       <c r="A130" t="s">
         <v>68</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>26</v>
       </c>
       <c r="C130" t="s">
         <v>70</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>4</v>
       </c>
       <c r="E130" t="str">
@@ -6062,13 +6063,13 @@
       <c r="A131" t="s">
         <v>68</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>26</v>
       </c>
       <c r="C131" t="s">
         <v>70</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>5</v>
       </c>
       <c r="E131" t="str">
@@ -6088,13 +6089,13 @@
       <c r="A132" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>70</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>1</v>
       </c>
       <c r="E132" t="str">
@@ -6114,13 +6115,13 @@
       <c r="A133" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>27</v>
       </c>
       <c r="C133" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>2</v>
       </c>
       <c r="E133" t="str">
@@ -6140,13 +6141,13 @@
       <c r="A134" t="s">
         <v>68</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>27</v>
       </c>
       <c r="C134" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>3</v>
       </c>
       <c r="E134" t="str">
@@ -6166,13 +6167,13 @@
       <c r="A135" t="s">
         <v>68</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <v>27</v>
       </c>
       <c r="C135" t="s">
         <v>70</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>4</v>
       </c>
       <c r="E135" t="str">
@@ -6192,13 +6193,13 @@
       <c r="A136" t="s">
         <v>68</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>27</v>
       </c>
       <c r="C136" t="s">
         <v>70</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>5</v>
       </c>
       <c r="E136" t="str">
@@ -6218,13 +6219,13 @@
       <c r="A137" t="s">
         <v>68</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>28</v>
       </c>
       <c r="C137" t="s">
         <v>70</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>1</v>
       </c>
       <c r="E137" t="str">
@@ -6244,13 +6245,13 @@
       <c r="A138" t="s">
         <v>68</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>28</v>
       </c>
       <c r="C138" t="s">
         <v>70</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>2</v>
       </c>
       <c r="E138" t="str">
@@ -6270,13 +6271,13 @@
       <c r="A139" t="s">
         <v>68</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>28</v>
       </c>
       <c r="C139" t="s">
         <v>70</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>3</v>
       </c>
       <c r="E139" t="str">
@@ -6296,13 +6297,13 @@
       <c r="A140" t="s">
         <v>68</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>28</v>
       </c>
       <c r="C140" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>4</v>
       </c>
       <c r="E140" t="str">
@@ -6322,13 +6323,13 @@
       <c r="A141" t="s">
         <v>68</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>28</v>
       </c>
       <c r="C141" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>5</v>
       </c>
       <c r="E141" t="str">
@@ -6348,13 +6349,13 @@
       <c r="A142" t="s">
         <v>68</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>29</v>
       </c>
       <c r="C142" t="s">
         <v>70</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>1</v>
       </c>
       <c r="E142" t="str">
@@ -6374,13 +6375,13 @@
       <c r="A143" t="s">
         <v>68</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>29</v>
       </c>
       <c r="C143" t="s">
         <v>70</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>2</v>
       </c>
       <c r="E143" t="str">
@@ -6400,13 +6401,13 @@
       <c r="A144" t="s">
         <v>68</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>29</v>
       </c>
       <c r="C144" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>3</v>
       </c>
       <c r="E144" t="str">
@@ -6426,13 +6427,13 @@
       <c r="A145" t="s">
         <v>68</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>29</v>
       </c>
       <c r="C145" t="s">
         <v>70</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>4</v>
       </c>
       <c r="E145" t="str">
@@ -6452,13 +6453,13 @@
       <c r="A146" t="s">
         <v>68</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>29</v>
       </c>
       <c r="C146" t="s">
         <v>70</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>5</v>
       </c>
       <c r="E146" t="str">
@@ -6478,13 +6479,13 @@
       <c r="A147" t="s">
         <v>68</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>30</v>
       </c>
       <c r="C147" t="s">
         <v>70</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>1</v>
       </c>
       <c r="E147" t="str">
@@ -6504,13 +6505,13 @@
       <c r="A148" t="s">
         <v>68</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>30</v>
       </c>
       <c r="C148" t="s">
         <v>70</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>2</v>
       </c>
       <c r="E148" t="str">
@@ -6530,13 +6531,13 @@
       <c r="A149" t="s">
         <v>68</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>30</v>
       </c>
       <c r="C149" t="s">
         <v>70</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>3</v>
       </c>
       <c r="E149" t="str">
@@ -6556,13 +6557,13 @@
       <c r="A150" t="s">
         <v>68</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>30</v>
       </c>
       <c r="C150" t="s">
         <v>70</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>4</v>
       </c>
       <c r="E150" t="str">
@@ -6582,13 +6583,13 @@
       <c r="A151" t="s">
         <v>68</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>30</v>
       </c>
       <c r="C151" t="s">
         <v>70</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>5</v>
       </c>
       <c r="E151" t="str">
@@ -6608,13 +6609,13 @@
       <c r="A152" t="s">
         <v>68</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>31</v>
       </c>
       <c r="C152" t="s">
         <v>70</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>1</v>
       </c>
       <c r="E152" t="str">
@@ -6634,13 +6635,13 @@
       <c r="A153" t="s">
         <v>68</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>31</v>
       </c>
       <c r="C153" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>2</v>
       </c>
       <c r="E153" t="str">
@@ -6660,13 +6661,13 @@
       <c r="A154" t="s">
         <v>68</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>31</v>
       </c>
       <c r="C154" t="s">
         <v>70</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>3</v>
       </c>
       <c r="E154" t="str">
@@ -6686,13 +6687,13 @@
       <c r="A155" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>31</v>
       </c>
       <c r="C155" t="s">
         <v>70</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>4</v>
       </c>
       <c r="E155" t="str">
@@ -6712,13 +6713,13 @@
       <c r="A156" t="s">
         <v>68</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>31</v>
       </c>
       <c r="C156" t="s">
         <v>70</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>5</v>
       </c>
       <c r="E156" t="str">
@@ -6738,13 +6739,13 @@
       <c r="A157" t="s">
         <v>68</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>32</v>
       </c>
       <c r="C157" t="s">
         <v>70</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>1</v>
       </c>
       <c r="E157" t="str">
@@ -6764,13 +6765,13 @@
       <c r="A158" t="s">
         <v>68</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>32</v>
       </c>
       <c r="C158" t="s">
         <v>70</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>2</v>
       </c>
       <c r="E158" t="str">
@@ -6790,13 +6791,13 @@
       <c r="A159" t="s">
         <v>68</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>32</v>
       </c>
       <c r="C159" t="s">
         <v>70</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>3</v>
       </c>
       <c r="E159" t="str">
@@ -6816,13 +6817,13 @@
       <c r="A160" t="s">
         <v>68</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>32</v>
       </c>
       <c r="C160" t="s">
         <v>70</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>4</v>
       </c>
       <c r="E160" t="str">
@@ -6842,13 +6843,13 @@
       <c r="A161" t="s">
         <v>68</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>32</v>
       </c>
       <c r="C161" t="s">
         <v>70</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>5</v>
       </c>
       <c r="E161" t="str">
@@ -6868,13 +6869,13 @@
       <c r="A162" t="s">
         <v>68</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>33</v>
       </c>
       <c r="C162" t="s">
         <v>70</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>1</v>
       </c>
       <c r="E162" t="str">
@@ -6894,13 +6895,13 @@
       <c r="A163" t="s">
         <v>68</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>33</v>
       </c>
       <c r="C163" t="s">
         <v>70</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>2</v>
       </c>
       <c r="E163" t="str">
@@ -6920,13 +6921,13 @@
       <c r="A164" t="s">
         <v>68</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>33</v>
       </c>
       <c r="C164" t="s">
         <v>70</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>3</v>
       </c>
       <c r="E164" t="str">
@@ -6946,13 +6947,13 @@
       <c r="A165" t="s">
         <v>68</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>33</v>
       </c>
       <c r="C165" t="s">
         <v>70</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>4</v>
       </c>
       <c r="E165" t="str">
@@ -6972,13 +6973,13 @@
       <c r="A166" t="s">
         <v>68</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>33</v>
       </c>
       <c r="C166" t="s">
         <v>70</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>5</v>
       </c>
       <c r="E166" t="str">
@@ -6998,13 +6999,13 @@
       <c r="A167" t="s">
         <v>68</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>34</v>
       </c>
       <c r="C167" t="s">
         <v>70</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>1</v>
       </c>
       <c r="E167" t="str">
@@ -7024,13 +7025,13 @@
       <c r="A168" t="s">
         <v>68</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>34</v>
       </c>
       <c r="C168" t="s">
         <v>70</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>2</v>
       </c>
       <c r="E168" t="str">
@@ -7050,13 +7051,13 @@
       <c r="A169" t="s">
         <v>68</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>34</v>
       </c>
       <c r="C169" t="s">
         <v>70</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>3</v>
       </c>
       <c r="E169" t="str">
@@ -7076,13 +7077,13 @@
       <c r="A170" t="s">
         <v>68</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>34</v>
       </c>
       <c r="C170" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>4</v>
       </c>
       <c r="E170" t="str">
@@ -7102,13 +7103,13 @@
       <c r="A171" t="s">
         <v>68</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>34</v>
       </c>
       <c r="C171" t="s">
         <v>70</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>5</v>
       </c>
       <c r="E171" t="str">
@@ -7128,13 +7129,13 @@
       <c r="A172" t="s">
         <v>68</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>35</v>
       </c>
       <c r="C172" t="s">
         <v>70</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>1</v>
       </c>
       <c r="E172" t="str">
@@ -7154,13 +7155,13 @@
       <c r="A173" t="s">
         <v>68</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>35</v>
       </c>
       <c r="C173" t="s">
         <v>70</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>2</v>
       </c>
       <c r="E173" t="str">
@@ -7180,13 +7181,13 @@
       <c r="A174" t="s">
         <v>68</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>35</v>
       </c>
       <c r="C174" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>3</v>
       </c>
       <c r="E174" t="str">
@@ -7206,13 +7207,13 @@
       <c r="A175" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>35</v>
       </c>
       <c r="C175" t="s">
         <v>70</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>4</v>
       </c>
       <c r="E175" t="str">
@@ -7232,13 +7233,13 @@
       <c r="A176" t="s">
         <v>68</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>35</v>
       </c>
       <c r="C176" t="s">
         <v>70</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>5</v>
       </c>
       <c r="E176" t="str">
@@ -7258,13 +7259,13 @@
       <c r="A177" t="s">
         <v>68</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>70</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>1</v>
       </c>
       <c r="E177" t="str">
@@ -7284,13 +7285,13 @@
       <c r="A178" t="s">
         <v>68</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>36</v>
       </c>
       <c r="C178" t="s">
         <v>70</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <v>2</v>
       </c>
       <c r="E178" t="str">
@@ -7310,13 +7311,13 @@
       <c r="A179" t="s">
         <v>68</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>36</v>
       </c>
       <c r="C179" t="s">
         <v>70</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>3</v>
       </c>
       <c r="E179" t="str">
@@ -7336,13 +7337,13 @@
       <c r="A180" t="s">
         <v>68</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>36</v>
       </c>
       <c r="C180" t="s">
         <v>70</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>4</v>
       </c>
       <c r="E180" t="str">
@@ -7362,13 +7363,13 @@
       <c r="A181" t="s">
         <v>68</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>36</v>
       </c>
       <c r="C181" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>5</v>
       </c>
       <c r="E181" t="str">
@@ -7388,13 +7389,13 @@
       <c r="A182" t="s">
         <v>68</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>37</v>
       </c>
       <c r="C182" t="s">
         <v>70</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>1</v>
       </c>
       <c r="E182" t="str">
@@ -7414,13 +7415,13 @@
       <c r="A183" t="s">
         <v>68</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>37</v>
       </c>
       <c r="C183" t="s">
         <v>70</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <v>2</v>
       </c>
       <c r="E183" t="str">
@@ -7440,13 +7441,13 @@
       <c r="A184" t="s">
         <v>68</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>37</v>
       </c>
       <c r="C184" t="s">
         <v>70</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <v>3</v>
       </c>
       <c r="E184" t="str">
@@ -7466,13 +7467,13 @@
       <c r="A185" t="s">
         <v>68</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>37</v>
       </c>
       <c r="C185" t="s">
         <v>70</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <v>4</v>
       </c>
       <c r="E185" t="str">
@@ -7492,13 +7493,13 @@
       <c r="A186" t="s">
         <v>68</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>37</v>
       </c>
       <c r="C186" t="s">
         <v>70</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <v>5</v>
       </c>
       <c r="E186" t="str">
@@ -7518,13 +7519,13 @@
       <c r="A187" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>38</v>
       </c>
       <c r="C187" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <v>1</v>
       </c>
       <c r="E187" t="str">
@@ -7544,13 +7545,13 @@
       <c r="A188" t="s">
         <v>68</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>38</v>
       </c>
       <c r="C188" t="s">
         <v>70</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>2</v>
       </c>
       <c r="E188" t="str">
@@ -7570,13 +7571,13 @@
       <c r="A189" t="s">
         <v>68</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>38</v>
       </c>
       <c r="C189" t="s">
         <v>70</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>3</v>
       </c>
       <c r="E189" t="str">
@@ -7596,13 +7597,13 @@
       <c r="A190" t="s">
         <v>68</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>38</v>
       </c>
       <c r="C190" t="s">
         <v>70</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <v>4</v>
       </c>
       <c r="E190" t="str">
@@ -7622,13 +7623,13 @@
       <c r="A191" t="s">
         <v>68</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>38</v>
       </c>
       <c r="C191" t="s">
         <v>70</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>5</v>
       </c>
       <c r="E191" t="str">
@@ -7648,13 +7649,13 @@
       <c r="A192" t="s">
         <v>68</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>70</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <v>1</v>
       </c>
       <c r="E192" t="str">
@@ -7674,13 +7675,13 @@
       <c r="A193" t="s">
         <v>68</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>39</v>
       </c>
       <c r="C193" t="s">
         <v>70</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <v>2</v>
       </c>
       <c r="E193" t="str">
@@ -7700,13 +7701,13 @@
       <c r="A194" t="s">
         <v>68</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>39</v>
       </c>
       <c r="C194" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <v>3</v>
       </c>
       <c r="E194" t="str">
@@ -7726,13 +7727,13 @@
       <c r="A195" t="s">
         <v>68</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>39</v>
       </c>
       <c r="C195" t="s">
         <v>70</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>4</v>
       </c>
       <c r="E195" t="str">
@@ -7752,13 +7753,13 @@
       <c r="A196" t="s">
         <v>68</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>39</v>
       </c>
       <c r="C196" t="s">
         <v>70</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>5</v>
       </c>
       <c r="E196" t="str">
@@ -7778,13 +7779,13 @@
       <c r="A197" t="s">
         <v>68</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>40</v>
       </c>
       <c r="C197" t="s">
         <v>70</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>1</v>
       </c>
       <c r="E197" t="str">
@@ -7804,13 +7805,13 @@
       <c r="A198" t="s">
         <v>68</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>40</v>
       </c>
       <c r="C198" t="s">
         <v>70</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>2</v>
       </c>
       <c r="E198" t="str">
@@ -7830,13 +7831,13 @@
       <c r="A199" t="s">
         <v>68</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>40</v>
       </c>
       <c r="C199" t="s">
         <v>70</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>3</v>
       </c>
       <c r="E199" t="str">
@@ -7856,13 +7857,13 @@
       <c r="A200" t="s">
         <v>68</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>40</v>
       </c>
       <c r="C200" t="s">
         <v>70</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>4</v>
       </c>
       <c r="E200" t="str">
@@ -7882,13 +7883,13 @@
       <c r="A201" t="s">
         <v>68</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>40</v>
       </c>
       <c r="C201" t="s">
         <v>70</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>5</v>
       </c>
       <c r="E201" t="str">
@@ -7908,13 +7909,13 @@
       <c r="A202" t="s">
         <v>68</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="4">
         <v>41</v>
       </c>
       <c r="C202" t="s">
         <v>70</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>1</v>
       </c>
       <c r="E202" t="str">
@@ -7934,13 +7935,13 @@
       <c r="A203" t="s">
         <v>68</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>41</v>
       </c>
       <c r="C203" t="s">
         <v>70</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>2</v>
       </c>
       <c r="E203" t="str">
@@ -7960,13 +7961,13 @@
       <c r="A204" t="s">
         <v>68</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>41</v>
       </c>
       <c r="C204" t="s">
         <v>70</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>3</v>
       </c>
       <c r="E204" t="str">
@@ -7986,13 +7987,13 @@
       <c r="A205" t="s">
         <v>68</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>41</v>
       </c>
       <c r="C205" t="s">
         <v>70</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>4</v>
       </c>
       <c r="E205" t="str">
@@ -8012,13 +8013,13 @@
       <c r="A206" t="s">
         <v>68</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>41</v>
       </c>
       <c r="C206" t="s">
         <v>70</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>5</v>
       </c>
       <c r="E206" t="str">
@@ -8038,13 +8039,13 @@
       <c r="A207" t="s">
         <v>68</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>42</v>
       </c>
       <c r="C207" t="s">
         <v>70</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>1</v>
       </c>
       <c r="E207" t="str">
@@ -8064,13 +8065,13 @@
       <c r="A208" t="s">
         <v>68</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>42</v>
       </c>
       <c r="C208" t="s">
         <v>70</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>2</v>
       </c>
       <c r="E208" t="str">
@@ -8090,13 +8091,13 @@
       <c r="A209" t="s">
         <v>68</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>42</v>
       </c>
       <c r="C209" t="s">
         <v>70</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>3</v>
       </c>
       <c r="E209" t="str">
@@ -8116,13 +8117,13 @@
       <c r="A210" t="s">
         <v>68</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>42</v>
       </c>
       <c r="C210" t="s">
         <v>70</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>4</v>
       </c>
       <c r="E210" t="str">
@@ -8142,13 +8143,13 @@
       <c r="A211" t="s">
         <v>68</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>42</v>
       </c>
       <c r="C211" t="s">
         <v>70</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>5</v>
       </c>
       <c r="E211" t="str">
@@ -8168,13 +8169,13 @@
       <c r="A212" t="s">
         <v>68</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>43</v>
       </c>
       <c r="C212" t="s">
         <v>70</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>1</v>
       </c>
       <c r="E212" t="str">
@@ -8194,13 +8195,13 @@
       <c r="A213" t="s">
         <v>68</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>43</v>
       </c>
       <c r="C213" t="s">
         <v>70</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>2</v>
       </c>
       <c r="E213" t="str">
@@ -8220,13 +8221,13 @@
       <c r="A214" t="s">
         <v>68</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>43</v>
       </c>
       <c r="C214" t="s">
         <v>70</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>3</v>
       </c>
       <c r="E214" t="str">
@@ -8246,13 +8247,13 @@
       <c r="A215" t="s">
         <v>68</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>43</v>
       </c>
       <c r="C215" t="s">
         <v>70</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>4</v>
       </c>
       <c r="E215" t="str">
@@ -8272,13 +8273,13 @@
       <c r="A216" t="s">
         <v>68</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>43</v>
       </c>
       <c r="C216" t="s">
         <v>70</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>5</v>
       </c>
       <c r="E216" t="str">
@@ -8298,13 +8299,13 @@
       <c r="A217" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="4">
         <v>44</v>
       </c>
       <c r="C217" t="s">
         <v>70</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>1</v>
       </c>
       <c r="E217" t="str">
@@ -8324,13 +8325,13 @@
       <c r="A218" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="4">
         <v>44</v>
       </c>
       <c r="C218" t="s">
         <v>70</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>2</v>
       </c>
       <c r="E218" t="str">
@@ -8350,13 +8351,13 @@
       <c r="A219" t="s">
         <v>68</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="4">
         <v>44</v>
       </c>
       <c r="C219" t="s">
         <v>70</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>3</v>
       </c>
       <c r="E219" t="str">
@@ -8376,13 +8377,13 @@
       <c r="A220" t="s">
         <v>68</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="4">
         <v>44</v>
       </c>
       <c r="C220" t="s">
         <v>70</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>4</v>
       </c>
       <c r="E220" t="str">
@@ -8402,13 +8403,13 @@
       <c r="A221" t="s">
         <v>68</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="4">
         <v>44</v>
       </c>
       <c r="C221" t="s">
         <v>70</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>5</v>
       </c>
       <c r="E221" t="str">
@@ -8428,13 +8429,13 @@
       <c r="A222" t="s">
         <v>68</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="4">
         <v>45</v>
       </c>
       <c r="C222" t="s">
         <v>70</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>1</v>
       </c>
       <c r="E222" t="str">
@@ -8454,13 +8455,13 @@
       <c r="A223" t="s">
         <v>68</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="4">
         <v>45</v>
       </c>
       <c r="C223" t="s">
         <v>70</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>2</v>
       </c>
       <c r="E223" t="str">
@@ -8480,13 +8481,13 @@
       <c r="A224" t="s">
         <v>68</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>45</v>
       </c>
       <c r="C224" t="s">
         <v>70</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>3</v>
       </c>
       <c r="E224" t="str">
@@ -8506,13 +8507,13 @@
       <c r="A225" t="s">
         <v>68</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="4">
         <v>45</v>
       </c>
       <c r="C225" t="s">
         <v>70</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>4</v>
       </c>
       <c r="E225" t="str">
@@ -8532,13 +8533,13 @@
       <c r="A226" t="s">
         <v>68</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <v>45</v>
       </c>
       <c r="C226" t="s">
         <v>70</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>5</v>
       </c>
       <c r="E226" t="str">
@@ -8558,13 +8559,13 @@
       <c r="A227" t="s">
         <v>68</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <v>46</v>
       </c>
       <c r="C227" t="s">
         <v>70</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>1</v>
       </c>
       <c r="E227" t="str">
@@ -8584,13 +8585,13 @@
       <c r="A228" t="s">
         <v>68</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="4">
         <v>46</v>
       </c>
       <c r="C228" t="s">
         <v>70</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>2</v>
       </c>
       <c r="E228" t="str">
@@ -8610,13 +8611,13 @@
       <c r="A229" t="s">
         <v>68</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="4">
         <v>46</v>
       </c>
       <c r="C229" t="s">
         <v>70</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>3</v>
       </c>
       <c r="E229" t="str">
@@ -8636,13 +8637,13 @@
       <c r="A230" t="s">
         <v>68</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <v>46</v>
       </c>
       <c r="C230" t="s">
         <v>70</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>4</v>
       </c>
       <c r="E230" t="str">
@@ -8662,13 +8663,13 @@
       <c r="A231" t="s">
         <v>68</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <v>46</v>
       </c>
       <c r="C231" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>5</v>
       </c>
       <c r="E231" t="str">
@@ -8688,13 +8689,13 @@
       <c r="A232" t="s">
         <v>68</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="4">
         <v>47</v>
       </c>
       <c r="C232" t="s">
         <v>70</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>1</v>
       </c>
       <c r="E232" t="str">
@@ -8714,13 +8715,13 @@
       <c r="A233" t="s">
         <v>68</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="4">
         <v>47</v>
       </c>
       <c r="C233" t="s">
         <v>70</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>2</v>
       </c>
       <c r="E233" t="str">
@@ -8740,13 +8741,13 @@
       <c r="A234" t="s">
         <v>68</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="4">
         <v>47</v>
       </c>
       <c r="C234" t="s">
         <v>70</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>3</v>
       </c>
       <c r="E234" t="str">
@@ -8766,13 +8767,13 @@
       <c r="A235" t="s">
         <v>68</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="4">
         <v>47</v>
       </c>
       <c r="C235" t="s">
         <v>70</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>4</v>
       </c>
       <c r="E235" t="str">
@@ -8792,13 +8793,13 @@
       <c r="A236" t="s">
         <v>68</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="4">
         <v>47</v>
       </c>
       <c r="C236" t="s">
         <v>70</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>5</v>
       </c>
       <c r="E236" t="str">
@@ -8818,13 +8819,13 @@
       <c r="A237" t="s">
         <v>68</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="4">
         <v>48</v>
       </c>
       <c r="C237" t="s">
         <v>70</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>1</v>
       </c>
       <c r="E237" t="str">
@@ -8844,13 +8845,13 @@
       <c r="A238" t="s">
         <v>68</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="4">
         <v>48</v>
       </c>
       <c r="C238" t="s">
         <v>70</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>2</v>
       </c>
       <c r="E238" t="str">
@@ -8870,13 +8871,13 @@
       <c r="A239" t="s">
         <v>68</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="4">
         <v>48</v>
       </c>
       <c r="C239" t="s">
         <v>70</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>3</v>
       </c>
       <c r="E239" t="str">
@@ -8896,13 +8897,13 @@
       <c r="A240" t="s">
         <v>68</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>48</v>
       </c>
       <c r="C240" t="s">
         <v>70</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>4</v>
       </c>
       <c r="E240" t="str">
@@ -8922,13 +8923,13 @@
       <c r="A241" t="s">
         <v>68</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="4">
         <v>48</v>
       </c>
       <c r="C241" t="s">
         <v>70</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>5</v>
       </c>
       <c r="E241" t="str">
@@ -8948,13 +8949,13 @@
       <c r="A242" t="s">
         <v>68</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <v>49</v>
       </c>
       <c r="C242" t="s">
         <v>70</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>1</v>
       </c>
       <c r="E242" t="str">
@@ -8974,13 +8975,13 @@
       <c r="A243" t="s">
         <v>68</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <v>49</v>
       </c>
       <c r="C243" t="s">
         <v>70</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>2</v>
       </c>
       <c r="E243" t="str">
@@ -9000,13 +9001,13 @@
       <c r="A244" t="s">
         <v>68</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="4">
         <v>49</v>
       </c>
       <c r="C244" t="s">
         <v>70</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>3</v>
       </c>
       <c r="E244" t="str">
@@ -9026,13 +9027,13 @@
       <c r="A245" t="s">
         <v>68</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>49</v>
       </c>
       <c r="C245" t="s">
         <v>70</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>4</v>
       </c>
       <c r="E245" t="str">
@@ -9052,13 +9053,13 @@
       <c r="A246" t="s">
         <v>68</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <v>49</v>
       </c>
       <c r="C246" t="s">
         <v>70</v>
       </c>
-      <c r="D246" s="5">
+      <c r="D246" s="4">
         <v>5</v>
       </c>
       <c r="E246" t="str">
@@ -9078,13 +9079,13 @@
       <c r="A247" t="s">
         <v>68</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <v>50</v>
       </c>
       <c r="C247" t="s">
         <v>70</v>
       </c>
-      <c r="D247" s="5">
+      <c r="D247" s="4">
         <v>1</v>
       </c>
       <c r="E247" t="str">
@@ -9104,13 +9105,13 @@
       <c r="A248" t="s">
         <v>68</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="4">
         <v>50</v>
       </c>
       <c r="C248" t="s">
         <v>70</v>
       </c>
-      <c r="D248" s="5">
+      <c r="D248" s="4">
         <v>2</v>
       </c>
       <c r="E248" t="str">
@@ -9130,13 +9131,13 @@
       <c r="A249" t="s">
         <v>68</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="4">
         <v>50</v>
       </c>
       <c r="C249" t="s">
         <v>70</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="4">
         <v>3</v>
       </c>
       <c r="E249" t="str">
@@ -9156,13 +9157,13 @@
       <c r="A250" t="s">
         <v>68</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="4">
         <v>50</v>
       </c>
       <c r="C250" t="s">
         <v>70</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="4">
         <v>4</v>
       </c>
       <c r="E250" t="str">
@@ -9182,13 +9183,13 @@
       <c r="A251" t="s">
         <v>68</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="4">
         <v>50</v>
       </c>
       <c r="C251" t="s">
         <v>70</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="4">
         <v>5</v>
       </c>
       <c r="E251" t="str">
@@ -9205,57 +9206,57 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B252" s="5"/>
-      <c r="D252" s="5"/>
+      <c r="B252" s="4"/>
+      <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B253" s="5"/>
-      <c r="D253" s="5"/>
+      <c r="B253" s="4"/>
+      <c r="D253" s="4"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B254" s="5"/>
-      <c r="D254" s="5"/>
+      <c r="B254" s="4"/>
+      <c r="D254" s="4"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B255" s="5"/>
-      <c r="D255" s="5"/>
+      <c r="B255" s="4"/>
+      <c r="D255" s="4"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B256" s="5"/>
-      <c r="D256" s="5"/>
+      <c r="B256" s="4"/>
+      <c r="D256" s="4"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="5"/>
-      <c r="D257" s="5"/>
+      <c r="B257" s="4"/>
+      <c r="D257" s="4"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="5"/>
-      <c r="D258" s="5"/>
+      <c r="B258" s="4"/>
+      <c r="D258" s="4"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="5"/>
-      <c r="D259" s="5"/>
+      <c r="B259" s="4"/>
+      <c r="D259" s="4"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="5"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="5"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="5"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="5"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="5"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="5"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="5"/>
+      <c r="B266" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -9266,4 +9267,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_DESIGN/formulas.xlsx
+++ b/_DESIGN/formulas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$D$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="74">
   <si>
     <t>&lt;LinearLayout                 android:layout_width="&amp;char(34)&amp;"match_parent"&amp;char(34)&amp;"                 android:layout_height="&amp;char(34)&amp;"match_parent"&amp;char(34)&amp;"                 android:orientation="&amp;char(34)&amp;"horizontal"&amp;char(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;char(34)&amp;"@+id/textView4"&amp;char(34)&amp;"                     android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:text="&amp;char(34)&amp;"1."&amp;char(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;char(34)&amp;"@+id/textView3"&amp;char(34)&amp;"                     android:layout_width="&amp;char(34)&amp;"183dp"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:text="&amp;char(34)&amp;"TextView"&amp;char(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:orientation="&amp;char(34)&amp;"horizontal"&amp;char(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton2"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton3"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton4"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton5"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</t>
   </si>
@@ -250,6 +251,9 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>if (question50radioButton1.isChecked()) answers[50]=1; else if (question50radioButton2.isChecked()) answers[50]=2; else if (question50radioButton3.isChecked()) answers[50]=3; else if (question50radioButton4.isChecked()) answers[50]=4; else if (question50radioButton5.isChecked()) answers[50]=5; else { notCompleted(50, layout50); return; }</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2068,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C1" sqref="C1:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,8 +2084,8 @@
         <v>7</v>
       </c>
       <c r="C1" t="str">
-        <f>"&lt;LinearLayout                 android:layout_width="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:layout_height="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"android:gravity="&amp;CHAR(34)&amp;"center_vertical"&amp;CHAR(34)&amp;"                 android:layout_marginTop="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"                 android:layout_marginBottom="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/label"&amp;A1&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;A1&amp;"."&amp;CHAR(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"183dp"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton1"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton2"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton3"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton4"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton5"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;"</f>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label1"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="1." /&gt;                  &lt;TextView                     android:id="@+id/question1"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am the life of the party." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <f>"&lt;LinearLayout                 android:id="&amp;CHAR(34)&amp;"@+id/layout"&amp;A1&amp;CHAR(34)&amp;"                 android:layout_width="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:layout_height="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"android:gravity="&amp;CHAR(34)&amp;"center_vertical"&amp;CHAR(34)&amp;"                 android:layout_marginTop="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"                 android:layout_marginBottom="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/label"&amp;A1&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;A1&amp;"."&amp;CHAR(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"183dp"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;B1&amp;CHAR(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton1"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton2"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton3"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton4"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A1&amp;"radioButton5"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;"</f>
+        <v>&lt;LinearLayout                 android:id="@+id/layout1"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label1"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="1." /&gt;                  &lt;TextView                     android:id="@+id/question1"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am the life of the party." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question1radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,8 +2096,8 @@
         <v>10</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C50" si="0">"&lt;LinearLayout                 android:layout_width="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:layout_height="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"android:gravity="&amp;CHAR(34)&amp;"center_vertical"&amp;CHAR(34)&amp;"                 android:layout_marginTop="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"                 android:layout_marginBottom="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/label"&amp;A2&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;A2&amp;"."&amp;CHAR(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"183dp"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton1"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton2"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton3"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton4"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton5"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;"</f>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label2"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="2." /&gt;                  &lt;TextView                     android:id="@+id/question2"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel little concern for others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <f t="shared" ref="C2:C50" si="0">"&lt;LinearLayout                 android:id="&amp;CHAR(34)&amp;"@+id/layout"&amp;A2&amp;CHAR(34)&amp;"                 android:layout_width="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:layout_height="&amp;CHAR(34)&amp;"match_parent"&amp;CHAR(34)&amp;"                 android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"android:gravity="&amp;CHAR(34)&amp;"center_vertical"&amp;CHAR(34)&amp;"                 android:layout_marginTop="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"                 android:layout_marginBottom="&amp;CHAR(34)&amp;"4dp"&amp;CHAR(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/label"&amp;A2&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;A2&amp;"."&amp;CHAR(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;CHAR(34)&amp;"                     android:layout_width="&amp;CHAR(34)&amp;"183dp"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:text="&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                     android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;"                     android:orientation="&amp;CHAR(34)&amp;"horizontal"&amp;CHAR(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton1"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton2"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton3"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton4"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;CHAR(34)&amp;"@+id/question"&amp;A2&amp;"radioButton5"&amp;CHAR(34)&amp;"                         android:layout_width="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_height="&amp;CHAR(34)&amp;"wrap_content"&amp;CHAR(34)&amp;"                         android:layout_weight="&amp;CHAR(34)&amp;"1"&amp;CHAR(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;"</f>
+        <v>&lt;LinearLayout                 android:id="@+id/layout2"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label2"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="2." /&gt;                  &lt;TextView                     android:id="@+id/question2"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel little concern for others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question2radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,7 +2109,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label3"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="3." /&gt;                  &lt;TextView                     android:id="@+id/question3"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am always prepared." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout3"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label3"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="3." /&gt;                  &lt;TextView                     android:id="@+id/question3"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am always prepared." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question3radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,7 +2121,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label4"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="4." /&gt;                  &lt;TextView                     android:id="@+id/question4"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get stressed out easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout4"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label4"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="4." /&gt;                  &lt;TextView                     android:id="@+id/question4"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get stressed out easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question4radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,7 +2133,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label5"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="5." /&gt;                  &lt;TextView                     android:id="@+id/question5"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a rich vocabulary." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout5"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label5"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="5." /&gt;                  &lt;TextView                     android:id="@+id/question5"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a rich vocabulary." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question5radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +2145,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label6"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="6." /&gt;                  &lt;TextView                     android:id="@+id/question6"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't talk a lot." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout6"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label6"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="6." /&gt;                  &lt;TextView                     android:id="@+id/question6"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't talk a lot." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question6radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,7 +2157,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label7"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="7." /&gt;                  &lt;TextView                     android:id="@+id/question7"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am interested in people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout7"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label7"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="7." /&gt;                  &lt;TextView                     android:id="@+id/question7"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am interested in people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question7radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,7 +2169,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label8"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="8." /&gt;                  &lt;TextView                     android:id="@+id/question8"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Leave my belongings around." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout8"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label8"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="8." /&gt;                  &lt;TextView                     android:id="@+id/question8"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Leave my belongings around." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question8radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2181,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label9"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="9." /&gt;                  &lt;TextView                     android:id="@+id/question9"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am relaxed most of the time." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout9"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label9"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="9." /&gt;                  &lt;TextView                     android:id="@+id/question9"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am relaxed most of the time." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question9radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,7 +2193,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label10"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="10." /&gt;                  &lt;TextView                     android:id="@+id/question10"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have difficulty understanding abstract ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout10"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label10"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="10." /&gt;                  &lt;TextView                     android:id="@+id/question10"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have difficulty understanding abstract ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question10radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2201,7 +2205,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label11"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="11." /&gt;                  &lt;TextView                     android:id="@+id/question11"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel comfortable around people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout11"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label11"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="11." /&gt;                  &lt;TextView                     android:id="@+id/question11"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel comfortable around people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question11radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,7 +2217,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label12"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="12." /&gt;                  &lt;TextView                     android:id="@+id/question12"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Insult people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout12"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label12"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="12." /&gt;                  &lt;TextView                     android:id="@+id/question12"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Insult people." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question12radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,7 +2229,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label13"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="13." /&gt;                  &lt;TextView                     android:id="@+id/question13"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Pay attention to details." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout13"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label13"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="13." /&gt;                  &lt;TextView                     android:id="@+id/question13"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Pay attention to details." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question13radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2241,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label14"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="14." /&gt;                  &lt;TextView                     android:id="@+id/question14"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Worry about things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout14"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label14"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="14." /&gt;                  &lt;TextView                     android:id="@+id/question14"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Worry about things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question14radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label15"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="15." /&gt;                  &lt;TextView                     android:id="@+id/question15"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a vivid imagination." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout15"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label15"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="15." /&gt;                  &lt;TextView                     android:id="@+id/question15"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a vivid imagination." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question15radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,7 +2265,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label16"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="16." /&gt;                  &lt;TextView                     android:id="@+id/question16"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Keep in the background." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout16"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label16"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="16." /&gt;                  &lt;TextView                     android:id="@+id/question16"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Keep in the background." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question16radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,7 +2277,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label17"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="17." /&gt;                  &lt;TextView                     android:id="@+id/question17"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Sympathize with others' feelings." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout17"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label17"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="17." /&gt;                  &lt;TextView                     android:id="@+id/question17"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Sympathize with others' feelings." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question17radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,7 +2289,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label18"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="18." /&gt;                  &lt;TextView                     android:id="@+id/question18"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Make a mess of things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout18"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label18"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="18." /&gt;                  &lt;TextView                     android:id="@+id/question18"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Make a mess of things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question18radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2297,7 +2301,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label19"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="19." /&gt;                  &lt;TextView                     android:id="@+id/question19"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Seldom feel blue." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout19"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label19"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="19." /&gt;                  &lt;TextView                     android:id="@+id/question19"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Seldom feel blue." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question19radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,7 +2313,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label20"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="20." /&gt;                  &lt;TextView                     android:id="@+id/question20"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not interested in abstract ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout20"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label20"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="20." /&gt;                  &lt;TextView                     android:id="@+id/question20"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not interested in abstract ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question20radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,7 +2325,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label21"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="21." /&gt;                  &lt;TextView                     android:id="@+id/question21"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Start conversations." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout21"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label21"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="21." /&gt;                  &lt;TextView                     android:id="@+id/question21"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Start conversations." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question21radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,7 +2337,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label22"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="22." /&gt;                  &lt;TextView                     android:id="@+id/question22"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not interested in other people's problems." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout22"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label22"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="22." /&gt;                  &lt;TextView                     android:id="@+id/question22"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not interested in other people's problems." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question22radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,7 +2349,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label23"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="23." /&gt;                  &lt;TextView                     android:id="@+id/question23"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get chores done right away." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout23"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label23"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="23." /&gt;                  &lt;TextView                     android:id="@+id/question23"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get chores done right away." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question23radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2357,7 +2361,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label24"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="24." /&gt;                  &lt;TextView                     android:id="@+id/question24"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am easily disturbed." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout24"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label24"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="24." /&gt;                  &lt;TextView                     android:id="@+id/question24"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am easily disturbed." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question24radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2373,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label25"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="25." /&gt;                  &lt;TextView                     android:id="@+id/question25"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have excellent ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout25"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label25"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="25." /&gt;                  &lt;TextView                     android:id="@+id/question25"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have excellent ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question25radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2385,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label26"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="26." /&gt;                  &lt;TextView                     android:id="@+id/question26"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have little to say." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout26"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label26"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="26." /&gt;                  &lt;TextView                     android:id="@+id/question26"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have little to say." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question26radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,7 +2397,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label27"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="27." /&gt;                  &lt;TextView                     android:id="@+id/question27"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a soft heart." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout27"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label27"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="27." /&gt;                  &lt;TextView                     android:id="@+id/question27"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have a soft heart." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question27radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,7 +2409,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label28"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="28." /&gt;                  &lt;TextView                     android:id="@+id/question28"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Often forget to put things back in their proper place." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout28"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label28"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="28." /&gt;                  &lt;TextView                     android:id="@+id/question28"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Often forget to put things back in their proper place." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question28radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,7 +2421,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label29"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="29." /&gt;                  &lt;TextView                     android:id="@+id/question29"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get upset easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout29"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label29"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="29." /&gt;                  &lt;TextView                     android:id="@+id/question29"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get upset easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question29radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2433,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label30"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="30." /&gt;                  &lt;TextView                     android:id="@+id/question30"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Do not have a good imagination." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout30"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label30"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="30." /&gt;                  &lt;TextView                     android:id="@+id/question30"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Do not have a good imagination." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question30radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,7 +2445,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label31"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="31." /&gt;                  &lt;TextView                     android:id="@+id/question31"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Talk to a lot of different people at parties." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout31"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label31"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="31." /&gt;                  &lt;TextView                     android:id="@+id/question31"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Talk to a lot of different people at parties." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question31radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2453,7 +2457,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label32"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="32." /&gt;                  &lt;TextView                     android:id="@+id/question32"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not really interested in others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout32"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label32"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="32." /&gt;                  &lt;TextView                     android:id="@+id/question32"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am not really interested in others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question32radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2465,7 +2469,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label33"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="33." /&gt;                  &lt;TextView                     android:id="@+id/question33"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Like order." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout33"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label33"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="33." /&gt;                  &lt;TextView                     android:id="@+id/question33"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Like order." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question33radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,7 +2481,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label34"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="34." /&gt;                  &lt;TextView                     android:id="@+id/question34"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Change my mood a lot." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout34"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label34"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="34." /&gt;                  &lt;TextView                     android:id="@+id/question34"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Change my mood a lot." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question34radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2489,7 +2493,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label35"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="35." /&gt;                  &lt;TextView                     android:id="@+id/question35"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am quick to understand things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout35"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label35"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="35." /&gt;                  &lt;TextView                     android:id="@+id/question35"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am quick to understand things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question35radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,7 +2505,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label36"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="36." /&gt;                  &lt;TextView                     android:id="@+id/question36"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't like to draw attention to myself." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout36"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label36"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="36." /&gt;                  &lt;TextView                     android:id="@+id/question36"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't like to draw attention to myself." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question36radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2517,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label37"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="37." /&gt;                  &lt;TextView                     android:id="@+id/question37"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Take time out for others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout37"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label37"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="37." /&gt;                  &lt;TextView                     android:id="@+id/question37"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Take time out for others." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question37radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2529,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label38"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="38." /&gt;                  &lt;TextView                     android:id="@+id/question38"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Shirk my duties." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout38"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label38"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="38." /&gt;                  &lt;TextView                     android:id="@+id/question38"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Shirk my duties." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question38radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,7 +2541,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label39"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="39." /&gt;                  &lt;TextView                     android:id="@+id/question39"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have frequent mood swings." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout39"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label39"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="39." /&gt;                  &lt;TextView                     android:id="@+id/question39"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Have frequent mood swings." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question39radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,7 +2553,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label40"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="40." /&gt;                  &lt;TextView                     android:id="@+id/question40"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Use difficult words." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout40"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label40"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="40." /&gt;                  &lt;TextView                     android:id="@+id/question40"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Use difficult words." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question40radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,7 +2565,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label41"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="41." /&gt;                  &lt;TextView                     android:id="@+id/question41"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't mind being the center of attention." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout41"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label41"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="41." /&gt;                  &lt;TextView                     android:id="@+id/question41"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Don't mind being the center of attention." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question41radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,7 +2577,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label42"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="42." /&gt;                  &lt;TextView                     android:id="@+id/question42"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel others' emotions." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout42"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label42"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="42." /&gt;                  &lt;TextView                     android:id="@+id/question42"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Feel others' emotions." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question42radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2585,7 +2589,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label43"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="43." /&gt;                  &lt;TextView                     android:id="@+id/question43"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Follow a schedule." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout43"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label43"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="43." /&gt;                  &lt;TextView                     android:id="@+id/question43"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Follow a schedule." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question43radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2597,7 +2601,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label44"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="44." /&gt;                  &lt;TextView                     android:id="@+id/question44"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get irritated easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout44"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label44"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="44." /&gt;                  &lt;TextView                     android:id="@+id/question44"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Get irritated easily." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question44radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2613,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label45"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="45." /&gt;                  &lt;TextView                     android:id="@+id/question45"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Spend time reflecting on things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout45"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label45"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="45." /&gt;                  &lt;TextView                     android:id="@+id/question45"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Spend time reflecting on things." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question45radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,7 +2625,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label46"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="46." /&gt;                  &lt;TextView                     android:id="@+id/question46"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am quiet around strangers." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout46"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label46"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="46." /&gt;                  &lt;TextView                     android:id="@+id/question46"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am quiet around strangers." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question46radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,7 +2637,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label47"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="47." /&gt;                  &lt;TextView                     android:id="@+id/question47"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Make people feel at ease." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout47"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label47"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="47." /&gt;                  &lt;TextView                     android:id="@+id/question47"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Make people feel at ease." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question47radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,7 +2649,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label48"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="48." /&gt;                  &lt;TextView                     android:id="@+id/question48"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am exacting in my work." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout48"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label48"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="48." /&gt;                  &lt;TextView                     android:id="@+id/question48"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am exacting in my work." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question48radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,7 +2661,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label49"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="49." /&gt;                  &lt;TextView                     android:id="@+id/question49"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Often feel blue." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout49"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label49"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="49." /&gt;                  &lt;TextView                     android:id="@+id/question49"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Often feel blue." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question49radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,7 +2673,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;LinearLayout                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label50"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="50." /&gt;                  &lt;TextView                     android:id="@+id/question50"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am full of ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
+        <v>&lt;LinearLayout                 android:id="@+id/layout50"                 android:layout_width="match_parent"                 android:layout_height="match_parent"                 android:orientation="horizontal"android:gravity="center_vertical"                 android:layout_marginTop="4dp"                 android:layout_marginBottom="4dp"&gt;                  &lt;TextView                     android:id="@+id/label50"                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="50." /&gt;                  &lt;TextView                     android:id="@+id/question50"                     android:layout_width="183dp"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:text="Am full of ideas." /&gt;                  &lt;RadioGroup                     android:layout_width="wrap_content"                     android:layout_height="wrap_content"                     android:layout_weight="1"                     android:orientation="horizontal"&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton1"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton2"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton3"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton4"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                      &lt;RadioButton                         android:id="@+id/question50radioButton5"                         android:layout_width="wrap_content"                         android:layout_height="wrap_content"                         android:layout_weight="1" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -9271,265 +9275,1337 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f>"if (question"&amp;A1&amp;"radioButton1.isChecked()) answers["&amp;A1&amp;"]=1; else if (question"&amp;A1&amp;"radioButton2.isChecked()) answers["&amp;A1&amp;"]=2;"&amp;" else if (question"&amp;A1&amp;"radioButton3.isChecked()) answers["&amp;A1&amp;"]=3; else if (question"&amp;A1&amp;"radioButton4.isChecked()) answers["&amp;A1&amp;"]=4; else if (question"&amp;A1&amp;"radioButton5.isChecked()) answers["&amp;A1&amp;"]=5; else { notCompleted("&amp;A1&amp;", layout"&amp;A1&amp;"); return; }"</f>
+        <v>if (question1radioButton1.isChecked()) answers[1]=1; else if (question1radioButton2.isChecked()) answers[1]=2; else if (question1radioButton3.isChecked()) answers[1]=3; else if (question1radioButton4.isChecked()) answers[1]=4; else if (question1radioButton5.isChecked()) answers[1]=5; else { notCompleted(1, layout1); return; }</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B50" si="0">"if (question"&amp;A2&amp;"radioButton1.isChecked()) answers["&amp;A2&amp;"]=1; else if (question"&amp;A2&amp;"radioButton2.isChecked()) answers["&amp;A2&amp;"]=2;"&amp;" else if (question"&amp;A2&amp;"radioButton3.isChecked()) answers["&amp;A2&amp;"]=3; else if (question"&amp;A2&amp;"radioButton4.isChecked()) answers["&amp;A2&amp;"]=4; else if (question"&amp;A2&amp;"radioButton5.isChecked()) answers["&amp;A2&amp;"]=5; else { notCompleted("&amp;A2&amp;", layout"&amp;A2&amp;"); return; }"</f>
+        <v>if (question2radioButton1.isChecked()) answers[2]=1; else if (question2radioButton2.isChecked()) answers[2]=2; else if (question2radioButton3.isChecked()) answers[2]=3; else if (question2radioButton4.isChecked()) answers[2]=4; else if (question2radioButton5.isChecked()) answers[2]=5; else { notCompleted(2, layout2); return; }</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question3radioButton1.isChecked()) answers[3]=1; else if (question3radioButton2.isChecked()) answers[3]=2; else if (question3radioButton3.isChecked()) answers[3]=3; else if (question3radioButton4.isChecked()) answers[3]=4; else if (question3radioButton5.isChecked()) answers[3]=5; else { notCompleted(3, layout3); return; }</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question4radioButton1.isChecked()) answers[4]=1; else if (question4radioButton2.isChecked()) answers[4]=2; else if (question4radioButton3.isChecked()) answers[4]=3; else if (question4radioButton4.isChecked()) answers[4]=4; else if (question4radioButton5.isChecked()) answers[4]=5; else { notCompleted(4, layout4); return; }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question5radioButton1.isChecked()) answers[5]=1; else if (question5radioButton2.isChecked()) answers[5]=2; else if (question5radioButton3.isChecked()) answers[5]=3; else if (question5radioButton4.isChecked()) answers[5]=4; else if (question5radioButton5.isChecked()) answers[5]=5; else { notCompleted(5, layout5); return; }</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question6radioButton1.isChecked()) answers[6]=1; else if (question6radioButton2.isChecked()) answers[6]=2; else if (question6radioButton3.isChecked()) answers[6]=3; else if (question6radioButton4.isChecked()) answers[6]=4; else if (question6radioButton5.isChecked()) answers[6]=5; else { notCompleted(6, layout6); return; }</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question7radioButton1.isChecked()) answers[7]=1; else if (question7radioButton2.isChecked()) answers[7]=2; else if (question7radioButton3.isChecked()) answers[7]=3; else if (question7radioButton4.isChecked()) answers[7]=4; else if (question7radioButton5.isChecked()) answers[7]=5; else { notCompleted(7, layout7); return; }</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question8radioButton1.isChecked()) answers[8]=1; else if (question8radioButton2.isChecked()) answers[8]=2; else if (question8radioButton3.isChecked()) answers[8]=3; else if (question8radioButton4.isChecked()) answers[8]=4; else if (question8radioButton5.isChecked()) answers[8]=5; else { notCompleted(8, layout8); return; }</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question9radioButton1.isChecked()) answers[9]=1; else if (question9radioButton2.isChecked()) answers[9]=2; else if (question9radioButton3.isChecked()) answers[9]=3; else if (question9radioButton4.isChecked()) answers[9]=4; else if (question9radioButton5.isChecked()) answers[9]=5; else { notCompleted(9, layout9); return; }</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question10radioButton1.isChecked()) answers[10]=1; else if (question10radioButton2.isChecked()) answers[10]=2; else if (question10radioButton3.isChecked()) answers[10]=3; else if (question10radioButton4.isChecked()) answers[10]=4; else if (question10radioButton5.isChecked()) answers[10]=5; else { notCompleted(10, layout10); return; }</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question11radioButton1.isChecked()) answers[11]=1; else if (question11radioButton2.isChecked()) answers[11]=2; else if (question11radioButton3.isChecked()) answers[11]=3; else if (question11radioButton4.isChecked()) answers[11]=4; else if (question11radioButton5.isChecked()) answers[11]=5; else { notCompleted(11, layout11); return; }</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question12radioButton1.isChecked()) answers[12]=1; else if (question12radioButton2.isChecked()) answers[12]=2; else if (question12radioButton3.isChecked()) answers[12]=3; else if (question12radioButton4.isChecked()) answers[12]=4; else if (question12radioButton5.isChecked()) answers[12]=5; else { notCompleted(12, layout12); return; }</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question13radioButton1.isChecked()) answers[13]=1; else if (question13radioButton2.isChecked()) answers[13]=2; else if (question13radioButton3.isChecked()) answers[13]=3; else if (question13radioButton4.isChecked()) answers[13]=4; else if (question13radioButton5.isChecked()) answers[13]=5; else { notCompleted(13, layout13); return; }</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question14radioButton1.isChecked()) answers[14]=1; else if (question14radioButton2.isChecked()) answers[14]=2; else if (question14radioButton3.isChecked()) answers[14]=3; else if (question14radioButton4.isChecked()) answers[14]=4; else if (question14radioButton5.isChecked()) answers[14]=5; else { notCompleted(14, layout14); return; }</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question15radioButton1.isChecked()) answers[15]=1; else if (question15radioButton2.isChecked()) answers[15]=2; else if (question15radioButton3.isChecked()) answers[15]=3; else if (question15radioButton4.isChecked()) answers[15]=4; else if (question15radioButton5.isChecked()) answers[15]=5; else { notCompleted(15, layout15); return; }</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question16radioButton1.isChecked()) answers[16]=1; else if (question16radioButton2.isChecked()) answers[16]=2; else if (question16radioButton3.isChecked()) answers[16]=3; else if (question16radioButton4.isChecked()) answers[16]=4; else if (question16radioButton5.isChecked()) answers[16]=5; else { notCompleted(16, layout16); return; }</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question17radioButton1.isChecked()) answers[17]=1; else if (question17radioButton2.isChecked()) answers[17]=2; else if (question17radioButton3.isChecked()) answers[17]=3; else if (question17radioButton4.isChecked()) answers[17]=4; else if (question17radioButton5.isChecked()) answers[17]=5; else { notCompleted(17, layout17); return; }</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question18radioButton1.isChecked()) answers[18]=1; else if (question18radioButton2.isChecked()) answers[18]=2; else if (question18radioButton3.isChecked()) answers[18]=3; else if (question18radioButton4.isChecked()) answers[18]=4; else if (question18radioButton5.isChecked()) answers[18]=5; else { notCompleted(18, layout18); return; }</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question19radioButton1.isChecked()) answers[19]=1; else if (question19radioButton2.isChecked()) answers[19]=2; else if (question19radioButton3.isChecked()) answers[19]=3; else if (question19radioButton4.isChecked()) answers[19]=4; else if (question19radioButton5.isChecked()) answers[19]=5; else { notCompleted(19, layout19); return; }</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question20radioButton1.isChecked()) answers[20]=1; else if (question20radioButton2.isChecked()) answers[20]=2; else if (question20radioButton3.isChecked()) answers[20]=3; else if (question20radioButton4.isChecked()) answers[20]=4; else if (question20radioButton5.isChecked()) answers[20]=5; else { notCompleted(20, layout20); return; }</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question21radioButton1.isChecked()) answers[21]=1; else if (question21radioButton2.isChecked()) answers[21]=2; else if (question21radioButton3.isChecked()) answers[21]=3; else if (question21radioButton4.isChecked()) answers[21]=4; else if (question21radioButton5.isChecked()) answers[21]=5; else { notCompleted(21, layout21); return; }</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question22radioButton1.isChecked()) answers[22]=1; else if (question22radioButton2.isChecked()) answers[22]=2; else if (question22radioButton3.isChecked()) answers[22]=3; else if (question22radioButton4.isChecked()) answers[22]=4; else if (question22radioButton5.isChecked()) answers[22]=5; else { notCompleted(22, layout22); return; }</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question23radioButton1.isChecked()) answers[23]=1; else if (question23radioButton2.isChecked()) answers[23]=2; else if (question23radioButton3.isChecked()) answers[23]=3; else if (question23radioButton4.isChecked()) answers[23]=4; else if (question23radioButton5.isChecked()) answers[23]=5; else { notCompleted(23, layout23); return; }</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question24radioButton1.isChecked()) answers[24]=1; else if (question24radioButton2.isChecked()) answers[24]=2; else if (question24radioButton3.isChecked()) answers[24]=3; else if (question24radioButton4.isChecked()) answers[24]=4; else if (question24radioButton5.isChecked()) answers[24]=5; else { notCompleted(24, layout24); return; }</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question25radioButton1.isChecked()) answers[25]=1; else if (question25radioButton2.isChecked()) answers[25]=2; else if (question25radioButton3.isChecked()) answers[25]=3; else if (question25radioButton4.isChecked()) answers[25]=4; else if (question25radioButton5.isChecked()) answers[25]=5; else { notCompleted(25, layout25); return; }</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question26radioButton1.isChecked()) answers[26]=1; else if (question26radioButton2.isChecked()) answers[26]=2; else if (question26radioButton3.isChecked()) answers[26]=3; else if (question26radioButton4.isChecked()) answers[26]=4; else if (question26radioButton5.isChecked()) answers[26]=5; else { notCompleted(26, layout26); return; }</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question27radioButton1.isChecked()) answers[27]=1; else if (question27radioButton2.isChecked()) answers[27]=2; else if (question27radioButton3.isChecked()) answers[27]=3; else if (question27radioButton4.isChecked()) answers[27]=4; else if (question27radioButton5.isChecked()) answers[27]=5; else { notCompleted(27, layout27); return; }</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question28radioButton1.isChecked()) answers[28]=1; else if (question28radioButton2.isChecked()) answers[28]=2; else if (question28radioButton3.isChecked()) answers[28]=3; else if (question28radioButton4.isChecked()) answers[28]=4; else if (question28radioButton5.isChecked()) answers[28]=5; else { notCompleted(28, layout28); return; }</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question29radioButton1.isChecked()) answers[29]=1; else if (question29radioButton2.isChecked()) answers[29]=2; else if (question29radioButton3.isChecked()) answers[29]=3; else if (question29radioButton4.isChecked()) answers[29]=4; else if (question29radioButton5.isChecked()) answers[29]=5; else { notCompleted(29, layout29); return; }</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question30radioButton1.isChecked()) answers[30]=1; else if (question30radioButton2.isChecked()) answers[30]=2; else if (question30radioButton3.isChecked()) answers[30]=3; else if (question30radioButton4.isChecked()) answers[30]=4; else if (question30radioButton5.isChecked()) answers[30]=5; else { notCompleted(30, layout30); return; }</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question31radioButton1.isChecked()) answers[31]=1; else if (question31radioButton2.isChecked()) answers[31]=2; else if (question31radioButton3.isChecked()) answers[31]=3; else if (question31radioButton4.isChecked()) answers[31]=4; else if (question31radioButton5.isChecked()) answers[31]=5; else { notCompleted(31, layout31); return; }</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question32radioButton1.isChecked()) answers[32]=1; else if (question32radioButton2.isChecked()) answers[32]=2; else if (question32radioButton3.isChecked()) answers[32]=3; else if (question32radioButton4.isChecked()) answers[32]=4; else if (question32radioButton5.isChecked()) answers[32]=5; else { notCompleted(32, layout32); return; }</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question33radioButton1.isChecked()) answers[33]=1; else if (question33radioButton2.isChecked()) answers[33]=2; else if (question33radioButton3.isChecked()) answers[33]=3; else if (question33radioButton4.isChecked()) answers[33]=4; else if (question33radioButton5.isChecked()) answers[33]=5; else { notCompleted(33, layout33); return; }</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question34radioButton1.isChecked()) answers[34]=1; else if (question34radioButton2.isChecked()) answers[34]=2; else if (question34radioButton3.isChecked()) answers[34]=3; else if (question34radioButton4.isChecked()) answers[34]=4; else if (question34radioButton5.isChecked()) answers[34]=5; else { notCompleted(34, layout34); return; }</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question35radioButton1.isChecked()) answers[35]=1; else if (question35radioButton2.isChecked()) answers[35]=2; else if (question35radioButton3.isChecked()) answers[35]=3; else if (question35radioButton4.isChecked()) answers[35]=4; else if (question35radioButton5.isChecked()) answers[35]=5; else { notCompleted(35, layout35); return; }</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question36radioButton1.isChecked()) answers[36]=1; else if (question36radioButton2.isChecked()) answers[36]=2; else if (question36radioButton3.isChecked()) answers[36]=3; else if (question36radioButton4.isChecked()) answers[36]=4; else if (question36radioButton5.isChecked()) answers[36]=5; else { notCompleted(36, layout36); return; }</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question37radioButton1.isChecked()) answers[37]=1; else if (question37radioButton2.isChecked()) answers[37]=2; else if (question37radioButton3.isChecked()) answers[37]=3; else if (question37radioButton4.isChecked()) answers[37]=4; else if (question37radioButton5.isChecked()) answers[37]=5; else { notCompleted(37, layout37); return; }</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question38radioButton1.isChecked()) answers[38]=1; else if (question38radioButton2.isChecked()) answers[38]=2; else if (question38radioButton3.isChecked()) answers[38]=3; else if (question38radioButton4.isChecked()) answers[38]=4; else if (question38radioButton5.isChecked()) answers[38]=5; else { notCompleted(38, layout38); return; }</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question39radioButton1.isChecked()) answers[39]=1; else if (question39radioButton2.isChecked()) answers[39]=2; else if (question39radioButton3.isChecked()) answers[39]=3; else if (question39radioButton4.isChecked()) answers[39]=4; else if (question39radioButton5.isChecked()) answers[39]=5; else { notCompleted(39, layout39); return; }</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question40radioButton1.isChecked()) answers[40]=1; else if (question40radioButton2.isChecked()) answers[40]=2; else if (question40radioButton3.isChecked()) answers[40]=3; else if (question40radioButton4.isChecked()) answers[40]=4; else if (question40radioButton5.isChecked()) answers[40]=5; else { notCompleted(40, layout40); return; }</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question41radioButton1.isChecked()) answers[41]=1; else if (question41radioButton2.isChecked()) answers[41]=2; else if (question41radioButton3.isChecked()) answers[41]=3; else if (question41radioButton4.isChecked()) answers[41]=4; else if (question41radioButton5.isChecked()) answers[41]=5; else { notCompleted(41, layout41); return; }</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question42radioButton1.isChecked()) answers[42]=1; else if (question42radioButton2.isChecked()) answers[42]=2; else if (question42radioButton3.isChecked()) answers[42]=3; else if (question42radioButton4.isChecked()) answers[42]=4; else if (question42radioButton5.isChecked()) answers[42]=5; else { notCompleted(42, layout42); return; }</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question43radioButton1.isChecked()) answers[43]=1; else if (question43radioButton2.isChecked()) answers[43]=2; else if (question43radioButton3.isChecked()) answers[43]=3; else if (question43radioButton4.isChecked()) answers[43]=4; else if (question43radioButton5.isChecked()) answers[43]=5; else { notCompleted(43, layout43); return; }</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question44radioButton1.isChecked()) answers[44]=1; else if (question44radioButton2.isChecked()) answers[44]=2; else if (question44radioButton3.isChecked()) answers[44]=3; else if (question44radioButton4.isChecked()) answers[44]=4; else if (question44radioButton5.isChecked()) answers[44]=5; else { notCompleted(44, layout44); return; }</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question45radioButton1.isChecked()) answers[45]=1; else if (question45radioButton2.isChecked()) answers[45]=2; else if (question45radioButton3.isChecked()) answers[45]=3; else if (question45radioButton4.isChecked()) answers[45]=4; else if (question45radioButton5.isChecked()) answers[45]=5; else { notCompleted(45, layout45); return; }</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question46radioButton1.isChecked()) answers[46]=1; else if (question46radioButton2.isChecked()) answers[46]=2; else if (question46radioButton3.isChecked()) answers[46]=3; else if (question46radioButton4.isChecked()) answers[46]=4; else if (question46radioButton5.isChecked()) answers[46]=5; else { notCompleted(46, layout46); return; }</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question47radioButton1.isChecked()) answers[47]=1; else if (question47radioButton2.isChecked()) answers[47]=2; else if (question47radioButton3.isChecked()) answers[47]=3; else if (question47radioButton4.isChecked()) answers[47]=4; else if (question47radioButton5.isChecked()) answers[47]=5; else { notCompleted(47, layout47); return; }</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question48radioButton1.isChecked()) answers[48]=1; else if (question48radioButton2.isChecked()) answers[48]=2; else if (question48radioButton3.isChecked()) answers[48]=3; else if (question48radioButton4.isChecked()) answers[48]=4; else if (question48radioButton5.isChecked()) answers[48]=5; else { notCompleted(48, layout48); return; }</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question49radioButton1.isChecked()) answers[49]=1; else if (question49radioButton2.isChecked()) answers[49]=2; else if (question49radioButton3.isChecked()) answers[49]=3; else if (question49radioButton4.isChecked()) answers[49]=4; else if (question49radioButton5.isChecked()) answers[49]=5; else { notCompleted(49, layout49); return; }</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>if (question50radioButton1.isChecked()) answers[50]=1; else if (question50radioButton2.isChecked()) answers[50]=2; else if (question50radioButton3.isChecked()) answers[50]=3; else if (question50radioButton4.isChecked()) answers[50]=4; else if (question50radioButton5.isChecked()) answers[50]=5; else { notCompleted(50, layout50); return; }</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"layout"&amp;A1</f>
+        <v>layout1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"LinearLayout "&amp;B1&amp;" = new LinearLayout(this);"</f>
+        <v>LinearLayout layout1 = new LinearLayout(this);</v>
+      </c>
+      <c r="D1" t="str">
+        <f>B1&amp;" = findViewById(R.id."&amp;B1&amp;");"</f>
+        <v>layout1 = findViewById(R.id.layout1);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B50" si="0">"layout"&amp;A2</f>
+        <v>layout2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C50" si="1">"LinearLayout "&amp;B2&amp;" = new LinearLayout(this);"</f>
+        <v>LinearLayout layout2 = new LinearLayout(this);</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D50" si="2">B2&amp;" = findViewById(R.id."&amp;B2&amp;");"</f>
+        <v>layout2 = findViewById(R.id.layout2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>layout3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout3 = new LinearLayout(this);</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>layout3 = findViewById(R.id.layout3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>layout4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout4 = new LinearLayout(this);</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>layout4 = findViewById(R.id.layout4);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>layout5</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout5 = new LinearLayout(this);</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>layout5 = findViewById(R.id.layout5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>layout6</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout6 = new LinearLayout(this);</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>layout6 = findViewById(R.id.layout6);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>layout7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout7 = new LinearLayout(this);</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>layout7 = findViewById(R.id.layout7);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>layout8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout8 = new LinearLayout(this);</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>layout8 = findViewById(R.id.layout8);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>layout9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout9 = new LinearLayout(this);</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>layout9 = findViewById(R.id.layout9);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>layout10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout10 = new LinearLayout(this);</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>layout10 = findViewById(R.id.layout10);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>layout11</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout11 = new LinearLayout(this);</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>layout11 = findViewById(R.id.layout11);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>layout12</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout12 = new LinearLayout(this);</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>layout12 = findViewById(R.id.layout12);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>layout13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout13 = new LinearLayout(this);</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>layout13 = findViewById(R.id.layout13);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>layout14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout14 = new LinearLayout(this);</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>layout14 = findViewById(R.id.layout14);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>layout15</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout15 = new LinearLayout(this);</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>layout15 = findViewById(R.id.layout15);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>layout16</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout16 = new LinearLayout(this);</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>layout16 = findViewById(R.id.layout16);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>layout17</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout17 = new LinearLayout(this);</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>layout17 = findViewById(R.id.layout17);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>layout18</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout18 = new LinearLayout(this);</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>layout18 = findViewById(R.id.layout18);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>layout19</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout19 = new LinearLayout(this);</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>layout19 = findViewById(R.id.layout19);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>layout20</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout20 = new LinearLayout(this);</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>layout20 = findViewById(R.id.layout20);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>layout21</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout21 = new LinearLayout(this);</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>layout21 = findViewById(R.id.layout21);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>layout22</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout22 = new LinearLayout(this);</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>layout22 = findViewById(R.id.layout22);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>layout23</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout23 = new LinearLayout(this);</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>layout23 = findViewById(R.id.layout23);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>layout24</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout24 = new LinearLayout(this);</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>layout24 = findViewById(R.id.layout24);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>layout25</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout25 = new LinearLayout(this);</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>layout25 = findViewById(R.id.layout25);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>layout26</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout26 = new LinearLayout(this);</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>layout26 = findViewById(R.id.layout26);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>layout27</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout27 = new LinearLayout(this);</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>layout27 = findViewById(R.id.layout27);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>layout28</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout28 = new LinearLayout(this);</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>layout28 = findViewById(R.id.layout28);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>layout29</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout29 = new LinearLayout(this);</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>layout29 = findViewById(R.id.layout29);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>layout30</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout30 = new LinearLayout(this);</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>layout30 = findViewById(R.id.layout30);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>layout31</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout31 = new LinearLayout(this);</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>layout31 = findViewById(R.id.layout31);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>layout32</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout32 = new LinearLayout(this);</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>layout32 = findViewById(R.id.layout32);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>layout33</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout33 = new LinearLayout(this);</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>layout33 = findViewById(R.id.layout33);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>layout34</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout34 = new LinearLayout(this);</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>layout34 = findViewById(R.id.layout34);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>layout35</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout35 = new LinearLayout(this);</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>layout35 = findViewById(R.id.layout35);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>layout36</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout36 = new LinearLayout(this);</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>layout36 = findViewById(R.id.layout36);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>layout37</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout37 = new LinearLayout(this);</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>layout37 = findViewById(R.id.layout37);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>layout38</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout38 = new LinearLayout(this);</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>layout38 = findViewById(R.id.layout38);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>layout39</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout39 = new LinearLayout(this);</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>layout39 = findViewById(R.id.layout39);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>layout40</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout40 = new LinearLayout(this);</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>layout40 = findViewById(R.id.layout40);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>layout41</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout41 = new LinearLayout(this);</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>layout41 = findViewById(R.id.layout41);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>layout42</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout42 = new LinearLayout(this);</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>layout42 = findViewById(R.id.layout42);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>layout43</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout43 = new LinearLayout(this);</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>layout43 = findViewById(R.id.layout43);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>layout44</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout44 = new LinearLayout(this);</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>layout44 = findViewById(R.id.layout44);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>layout45</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout45 = new LinearLayout(this);</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>layout45 = findViewById(R.id.layout45);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>layout46</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout46 = new LinearLayout(this);</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>layout46 = findViewById(R.id.layout46);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>layout47</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout47 = new LinearLayout(this);</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>layout47 = findViewById(R.id.layout47);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>layout48</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout48 = new LinearLayout(this);</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>layout48 = findViewById(R.id.layout48);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>layout49</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout49 = new LinearLayout(this);</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>layout49 = findViewById(R.id.layout49);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>layout50</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>LinearLayout layout50 = new LinearLayout(this);</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>layout50 = findViewById(R.id.layout50);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_DESIGN/formulas.xlsx
+++ b/_DESIGN/formulas.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="79">
   <si>
     <t>&lt;LinearLayout                 android:layout_width="&amp;char(34)&amp;"match_parent"&amp;char(34)&amp;"                 android:layout_height="&amp;char(34)&amp;"match_parent"&amp;char(34)&amp;"                 android:orientation="&amp;char(34)&amp;"horizontal"&amp;char(34)&amp;"&gt;                  &lt;TextView                     android:id="&amp;char(34)&amp;"@+id/textView4"&amp;char(34)&amp;"                     android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:text="&amp;char(34)&amp;"1."&amp;char(34)&amp;" /&gt;                  &lt;TextView                     android:id="&amp;char(34)&amp;"@+id/textView3"&amp;char(34)&amp;"                     android:layout_width="&amp;char(34)&amp;"183dp"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:text="&amp;char(34)&amp;"TextView"&amp;char(34)&amp;" /&gt;                  &lt;RadioGroup                     android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                     android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;"                     android:orientation="&amp;char(34)&amp;"horizontal"&amp;char(34)&amp;"&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton2"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton3"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton4"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                      &lt;RadioButton                         android:id="&amp;char(34)&amp;"@+id/radioButton5"&amp;char(34)&amp;"                         android:layout_width="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_height="&amp;char(34)&amp;"wrap_content"&amp;char(34)&amp;"                         android:layout_weight="&amp;char(34)&amp;"1"&amp;char(34)&amp;" /&gt;                 &lt;/RadioGroup&gt;              &lt;/LinearLayout&gt;</t>
   </si>
@@ -255,12 +256,27 @@
   <si>
     <t>if (question50radioButton1.isChecked()) answers[50]=1; else if (question50radioButton2.isChecked()) answers[50]=2; else if (question50radioButton3.isChecked()) answers[50]=3; else if (question50radioButton4.isChecked()) answers[50]=4; else if (question50radioButton5.isChecked()) answers[50]=5; else { notCompleted(50, layout50); return; }</t>
   </si>
+  <si>
+    <t>extraversion</t>
+  </si>
+  <si>
+    <t>agreeableness</t>
+  </si>
+  <si>
+    <t>conscientiousness</t>
+  </si>
+  <si>
+    <t>emotionalStability</t>
+  </si>
+  <si>
+    <t>intellectImagination</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +290,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000080"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -310,11 +338,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -663,15 +740,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H7:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,11 +764,11 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,11 +784,11 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
@@ -719,11 +796,11 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
@@ -731,27 +808,27 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2064,6 +2141,861 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="str">
+        <f>RIGHT(LEFT(B1,2),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>LEFT(RIGHT(B1,2),1)</f>
+        <v>+</v>
+      </c>
+      <c r="E1" s="9">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:E50" si="0">RIGHT(LEFT(B2,2),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D50" si="1">LEFT(RIGHT(B2,2),1)</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="5">
+      <formula>NOT(ISERROR(SEARCH("5",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -2682,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I266"/>
   <sheetViews>
@@ -9273,7 +10205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -9744,11 +10676,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
